--- a/data/price_mad.xlsx
+++ b/data/price_mad.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>pr_mad</t>
@@ -446,7 +441,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
@@ -456,7 +451,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
@@ -466,7 +461,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>BBSE3</t>
         </is>
@@ -476,7 +471,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
@@ -486,7 +481,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
@@ -496,7 +491,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
@@ -506,7 +501,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
@@ -516,7 +511,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
@@ -526,7 +521,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
@@ -536,7 +531,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
@@ -546,7 +541,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
@@ -556,7 +551,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
@@ -566,7 +561,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
@@ -576,7 +571,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
@@ -586,7 +581,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>VBBR3</t>
         </is>
@@ -596,7 +591,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
@@ -606,7 +601,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
@@ -616,7 +611,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
@@ -626,7 +621,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
@@ -636,7 +631,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
